--- a/documentation/build_orders/unit_types/zerg_unit_types.xlsx
+++ b/documentation/build_orders/unit_types/zerg_unit_types.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\unit_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6F5ED-D949-4FD1-9A2F-2456F6009002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F600D0-3ABC-4470-B9F4-50F88287FEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="7740" windowWidth="14610" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="8160" windowWidth="14610" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
   <si>
     <t>starcraft unit/upgrade</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>UpgradeCompleteEvent</t>
+  </si>
+  <si>
+    <t>SporeCrawler</t>
+  </si>
+  <si>
+    <t>SpineCrawler</t>
   </si>
 </sst>
 </file>
@@ -584,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,320 +930,342 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
         <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
         <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
         <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
         <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
         <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
         <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
         <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
         <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
         <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
         <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
         <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
         <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
         <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
         <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
         <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>66</v>
       </c>
-      <c r="B54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
         <v>66</v>
       </c>
     </row>
